--- a/Document/Phân chia công việc.xlsx
+++ b/Document/Phân chia công việc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Phần % đóng góp</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Phân hệ Master - Quản lý Agent</t>
+  </si>
+  <si>
+    <t>Huỳnh Chánh Kiệt</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <dimension ref="C1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -435,56 +438,62 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C3">
-        <v>1542245</v>
+        <v>1542234</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C4">
-        <v>1542247</v>
+        <v>1542245</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C5">
-        <v>1542277</v>
+        <v>1542247</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="C6">
+        <v>1542277</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
